--- a/files/rd36.ru.xlsx
+++ b/files/rd36.ru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WAMP64\www\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9351086-99D6-4DBC-980B-E75802AF7A67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA4CB9B-8C46-4278-A055-26B0072599B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,7 +787,7 @@
       <c r="C4" s="3">
         <v>57.6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="3">
@@ -817,7 +817,7 @@
       <c r="C5" s="3">
         <v>54.3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="3">
@@ -967,7 +967,7 @@
       <c r="C10" s="3">
         <v>32.9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="3">
@@ -997,7 +997,7 @@
       <c r="C11" s="3">
         <v>49.2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="3">
@@ -1627,7 +1627,7 @@
       <c r="C32" s="3">
         <v>50</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>1</v>
       </c>
       <c r="E32" s="3">
@@ -1657,7 +1657,7 @@
       <c r="C33" s="3">
         <v>48.7</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <v>1</v>
       </c>
       <c r="E33" s="3">
@@ -1687,7 +1687,7 @@
       <c r="C34" s="3">
         <v>44.2</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="3">
@@ -1777,7 +1777,7 @@
       <c r="C37" s="3">
         <v>49.9</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
         <v>1</v>
       </c>
       <c r="E37" s="3">
@@ -1897,7 +1897,7 @@
       <c r="C41" s="3">
         <v>49.3</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>1</v>
       </c>
       <c r="E41" s="3">
@@ -1927,7 +1927,7 @@
       <c r="C42" s="3">
         <v>50.6</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="3">
@@ -2017,7 +2017,7 @@
       <c r="C45" s="3">
         <v>32.200000000000003</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" s="3">
@@ -2047,7 +2047,7 @@
       <c r="C46" s="3">
         <v>58.2</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>1</v>
       </c>
       <c r="E46" s="3">
@@ -2077,7 +2077,7 @@
       <c r="C47" s="3">
         <v>32.1</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>1</v>
       </c>
       <c r="E47" s="3">
@@ -2164,7 +2164,7 @@
       <c r="C50" s="3">
         <v>57.7</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="5">
         <v>1</v>
       </c>
       <c r="E50" s="3">
@@ -2254,7 +2254,7 @@
       <c r="C53" s="3">
         <v>49.3</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="5">
         <v>1</v>
       </c>
       <c r="E53" s="3">
